--- a/Global-Variable Interaction/Global-Variable - Manual Study.xlsx
+++ b/Global-Variable Interaction/Global-Variable - Manual Study.xlsx
@@ -3525,7 +3525,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2296" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2343" uniqueCount="65">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -3729,7 +3729,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="7">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -3740,31 +3740,6 @@
     </font>
     <font>
       <b/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <u/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <u/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <u/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <u/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <u/>
-      <color rgb="FF0000FF"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -3893,8 +3868,8 @@
     <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment vertical="top"/>
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0" vertical="top"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="top"/>
@@ -3905,8 +3880,8 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="top"/>
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="top"/>
     </xf>
     <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
@@ -3917,8 +3892,8 @@
     <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment vertical="top"/>
+    <xf borderId="0" fillId="6" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0" vertical="top"/>
     </xf>
     <xf borderId="0" fillId="7" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
@@ -3926,8 +3901,8 @@
     <xf borderId="0" fillId="8" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="9" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment vertical="top"/>
+    <xf borderId="0" fillId="9" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0" vertical="top"/>
     </xf>
     <xf borderId="0" fillId="10" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
@@ -3944,13 +3919,13 @@
     <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf borderId="0" fillId="6" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="13" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="13" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="right" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="13" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -3962,21 +3937,21 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="11" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -3988,7 +3963,7 @@
     <xf borderId="0" fillId="7" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -4228,9 +4203,8 @@
       <c r="B2" s="7">
         <v>7.0</v>
       </c>
-      <c r="C2" s="8" t="str">
-        <f>HYPERLINK("https://github.uci.edu/rtrimana/smartthings_app/blob/master/official/beacon-control.groovy","beacon-control.groovy")</f>
-        <v>beacon-control.groovy</v>
+      <c r="C2" s="8" t="s">
+        <v>3</v>
       </c>
       <c r="D2" s="9"/>
       <c r="E2" s="10" t="s">
@@ -4384,9 +4358,8 @@
       <c r="B3" s="7">
         <v>11.0</v>
       </c>
-      <c r="C3" s="12" t="str">
-        <f>HYPERLINK("https://github.uci.edu/rtrimana/smartthings_app/blob/master/official/bon-voyage.groovy","bon-voyage.groovy")</f>
-        <v>bon-voyage.groovy</v>
+      <c r="C3" s="12" t="s">
+        <v>4</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>51</v>
@@ -4542,9 +4515,8 @@
       <c r="B4" s="7">
         <v>13.0</v>
       </c>
-      <c r="C4" s="8" t="str">
-        <f>HYPERLINK("https://github.uci.edu/rtrimana/smartthings_app/blob/master/official/bose-soundtouch-control.groovy","bose-soundtouch-control.groovy")</f>
-        <v>bose-soundtouch-control.groovy</v>
+      <c r="C4" s="8" t="s">
+        <v>5</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="15" t="s">
@@ -4698,9 +4670,8 @@
       <c r="B5" s="7">
         <v>16.0</v>
       </c>
-      <c r="C5" s="8" t="str">
-        <f>HYPERLINK("https://github.uci.edu/rtrimana/smartthings_app/blob/master/official/bright-when-dark-and-or-bright-after-sunset.groovy","bright-when-dark-and-or-bright-after-sunset.groovy")</f>
-        <v>bright-when-dark-and-or-bright-after-sunset.groovy</v>
+      <c r="C5" s="8" t="s">
+        <v>6</v>
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="15" t="s">
@@ -4854,9 +4825,8 @@
       <c r="B6" s="7">
         <v>17.0</v>
       </c>
-      <c r="C6" s="16" t="str">
-        <f>HYPERLINK("https://github.uci.edu/rtrimana/smartthings_app/blob/master/official/button-controller.groovy","button-controller.groovy")</f>
-        <v>button-controller.groovy</v>
+      <c r="C6" s="16" t="s">
+        <v>7</v>
       </c>
       <c r="D6" s="9" t="s">
         <v>51</v>
@@ -5012,9 +4982,8 @@
       <c r="B7" s="7">
         <v>44.0</v>
       </c>
-      <c r="C7" s="8" t="str">
-        <f>HYPERLINK("https://github.uci.edu/rtrimana/smartthings_app/blob/master/official/forgiving-security.groovy","forgiving-security.groovy")</f>
-        <v>forgiving-security.groovy</v>
+      <c r="C7" s="8" t="s">
+        <v>8</v>
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="15" t="s">
@@ -5168,9 +5137,8 @@
       <c r="B8" s="7">
         <v>48.0</v>
       </c>
-      <c r="C8" s="19" t="str">
-        <f>HYPERLINK("https://github.uci.edu/rtrimana/smartthings_app/blob/master/official/gentle-wake-up.groovy","gentle-wake-up.groovy")</f>
-        <v>gentle-wake-up.groovy</v>
+      <c r="C8" s="19" t="s">
+        <v>9</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>51</v>
@@ -5326,9 +5294,8 @@
       <c r="B9" s="7">
         <v>52.0</v>
       </c>
-      <c r="C9" s="12" t="str">
-        <f>HYPERLINK("https://github.uci.edu/rtrimana/smartthings_app/blob/master/official/good-night.groovy","good-night.groovy")</f>
-        <v>good-night.groovy</v>
+      <c r="C9" s="12" t="s">
+        <v>10</v>
       </c>
       <c r="D9" s="9" t="s">
         <v>51</v>
@@ -5484,9 +5451,8 @@
       <c r="B10" s="7">
         <v>53.0</v>
       </c>
-      <c r="C10" s="16" t="str">
-        <f>HYPERLINK("https://github.uci.edu/rtrimana/smartthings_app/blob/master/official/good-night-house.groovy","good-night-house.groovy")</f>
-        <v>good-night-house.groovy</v>
+      <c r="C10" s="16" t="s">
+        <v>11</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>51</v>
@@ -5642,9 +5608,8 @@
       <c r="B11" s="7">
         <v>56.0</v>
       </c>
-      <c r="C11" s="12" t="str">
-        <f>HYPERLINK("https://github.uci.edu/rtrimana/smartthings_app/blob/master/official/greetings-earthling.groovy","greetings-earthling.groovy")</f>
-        <v>greetings-earthling.groovy</v>
+      <c r="C11" s="12" t="s">
+        <v>12</v>
       </c>
       <c r="D11" s="9" t="s">
         <v>51</v>
@@ -5800,9 +5765,8 @@
       <c r="B12" s="7">
         <v>60.0</v>
       </c>
-      <c r="C12" s="8" t="str">
-        <f>HYPERLINK("https://github.uci.edu/rtrimana/smartthings_app/blob/master/official/hello-home-phrase-director.groovy","hello-home-phrase-director.groovy")</f>
-        <v>hello-home-phrase-director.groovy</v>
+      <c r="C12" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="D12" s="23" t="s">
         <v>51</v>
@@ -5958,9 +5922,8 @@
       <c r="B13" s="7">
         <v>64.0</v>
       </c>
-      <c r="C13" s="8" t="str">
-        <f>HYPERLINK("https://github.uci.edu/rtrimana/smartthings_app/blob/master/official/hue-mood-lighting.groovy","hue-mood-lighting.groovy")</f>
-        <v>hue-mood-lighting.groovy</v>
+      <c r="C13" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="D13" s="9"/>
       <c r="E13" s="15" t="s">
@@ -6114,9 +6077,8 @@
       <c r="B14" s="7">
         <v>74.0</v>
       </c>
-      <c r="C14" s="8" t="str">
-        <f>HYPERLINK("https://github.uci.edu/rtrimana/smartthings_app/blob/master/official/keep-me-cozy.groovy","keep-me-cozy.groovy")</f>
-        <v>keep-me-cozy.groovy</v>
+      <c r="C14" s="8" t="s">
+        <v>15</v>
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="15" t="s">
@@ -6270,9 +6232,8 @@
       <c r="B15" s="7">
         <v>84.0</v>
       </c>
-      <c r="C15" s="8" t="str">
-        <f>HYPERLINK("https://github.uci.edu/rtrimana/smartthings_app/blob/master/official/lighting-director.groovy","lighting-director.groovy")</f>
-        <v>lighting-director.groovy</v>
+      <c r="C15" s="8" t="s">
+        <v>16</v>
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="15" t="s">
@@ -6426,9 +6387,8 @@
       <c r="B16" s="7">
         <v>92.0</v>
       </c>
-      <c r="C16" s="8" t="str">
-        <f>HYPERLINK("https://github.uci.edu/rtrimana/smartthings_app/blob/master/official/make-it-so.groovy","make-it-so.groovy")</f>
-        <v>make-it-so.groovy</v>
+      <c r="C16" s="8" t="s">
+        <v>17</v>
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="15" t="s">
@@ -6582,9 +6542,8 @@
       <c r="B17" s="7">
         <v>102.0</v>
       </c>
-      <c r="C17" s="12" t="str">
-        <f>HYPERLINK("https://github.uci.edu/rtrimana/smartthings_app/blob/master/official/nobody-home.groovy","nobody-home.groovy")</f>
-        <v>nobody-home.groovy</v>
+      <c r="C17" s="12" t="s">
+        <v>18</v>
       </c>
       <c r="D17" s="9" t="s">
         <v>51</v>
@@ -6740,9 +6699,8 @@
       <c r="B18" s="7">
         <v>105.0</v>
       </c>
-      <c r="C18" s="8" t="str">
-        <f>HYPERLINK("https://github.uci.edu/rtrimana/smartthings_app/blob/master/official/notify-me-with-hue.groovy","notify-me-with-hue.groovy")</f>
-        <v>notify-me-with-hue.groovy</v>
+      <c r="C18" s="8" t="s">
+        <v>19</v>
       </c>
       <c r="D18" s="9"/>
       <c r="E18" s="15" t="s">
@@ -6896,9 +6854,8 @@
       <c r="B19" s="7">
         <v>119.0</v>
       </c>
-      <c r="C19" s="12" t="str">
-        <f>HYPERLINK("https://github.uci.edu/rtrimana/smartthings_app/blob/master/official/rise-and-shine.groovy","rise-and-shine.groovy")</f>
-        <v>rise-and-shine.groovy</v>
+      <c r="C19" s="12" t="s">
+        <v>20</v>
       </c>
       <c r="D19" s="9" t="s">
         <v>51</v>
@@ -7054,9 +7011,8 @@
       <c r="B20" s="7">
         <v>120.0</v>
       </c>
-      <c r="C20" s="8" t="str">
-        <f>HYPERLINK("https://github.uci.edu/rtrimana/smartthings_app/blob/master/official/routine-director.groovy","routine-director.groovy")</f>
-        <v>routine-director.groovy</v>
+      <c r="C20" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="D20" s="9"/>
       <c r="E20" s="15" t="s">
@@ -7210,9 +7166,8 @@
       <c r="B21" s="7">
         <v>122.0</v>
       </c>
-      <c r="C21" s="12" t="str">
-        <f>HYPERLINK("https://github.uci.edu/rtrimana/smartthings_app/blob/master/official/scheduled-mode-change.groovy","scheduled-mode-change.groovy")</f>
-        <v>scheduled-mode-change.groovy</v>
+      <c r="C21" s="12" t="s">
+        <v>22</v>
       </c>
       <c r="D21" s="9" t="s">
         <v>51</v>
@@ -7368,9 +7323,8 @@
       <c r="B22" s="7">
         <v>128.0</v>
       </c>
-      <c r="C22" s="8" t="str">
-        <f>HYPERLINK("https://github.uci.edu/rtrimana/smartthings_app/blob/master/official/simple-sync-trigger.groovy","simple-sync-trigger.groovy")</f>
-        <v>simple-sync-trigger.groovy</v>
+      <c r="C22" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="D22" s="9"/>
       <c r="E22" s="15" t="s">
@@ -7524,9 +7478,8 @@
       <c r="B23" s="7">
         <v>129.0</v>
       </c>
-      <c r="C23" s="16" t="str">
-        <f>HYPERLINK("https://github.uci.edu/rtrimana/smartthings_app/blob/master/official/single-button-controller.groovy","single-button-controller.groovy")</f>
-        <v>single-button-controller.groovy</v>
+      <c r="C23" s="16" t="s">
+        <v>24</v>
       </c>
       <c r="D23" s="9" t="s">
         <v>51</v>
@@ -7682,9 +7635,8 @@
       <c r="B24" s="7">
         <v>131.0</v>
       </c>
-      <c r="C24" s="8" t="str">
-        <f>HYPERLINK("https://github.uci.edu/rtrimana/smartthings_app/blob/master/official/smart-alarm.groovy","smart-alarm.groovy")</f>
-        <v>smart-alarm.groovy</v>
+      <c r="C24" s="8" t="s">
+        <v>25</v>
       </c>
       <c r="D24" s="9"/>
       <c r="E24" s="15" t="s">
@@ -7838,9 +7790,8 @@
       <c r="B25" s="7">
         <v>138.0</v>
       </c>
-      <c r="C25" s="8" t="str">
-        <f>HYPERLINK("https://github.uci.edu/rtrimana/smartthings_app/blob/master/official/smart-home-ventilation.groovy","smart-home-ventilation.groovy")</f>
-        <v>smart-home-ventilation.groovy</v>
+      <c r="C25" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="D25" s="9"/>
       <c r="E25" s="15" t="s">
@@ -7994,9 +7945,8 @@
       <c r="B26" s="7">
         <v>142.0</v>
       </c>
-      <c r="C26" s="12" t="str">
-        <f>HYPERLINK("https://github.uci.edu/rtrimana/smartthings_app/blob/master/official/smart-security.groovy","smart-security.groovy")</f>
-        <v>smart-security.groovy</v>
+      <c r="C26" s="12" t="s">
+        <v>27</v>
       </c>
       <c r="D26" s="9" t="s">
         <v>51</v>
@@ -8152,9 +8102,8 @@
       <c r="B27" s="7">
         <v>146.0</v>
       </c>
-      <c r="C27" s="8" t="str">
-        <f>HYPERLINK("https://github.uci.edu/rtrimana/smartthings_app/blob/master/official/sonos-music-modes.groovy","sonos-music-modes.groovy")</f>
-        <v>sonos-music-modes.groovy</v>
+      <c r="C27" s="8" t="s">
+        <v>28</v>
       </c>
       <c r="D27" s="9"/>
       <c r="E27" s="15" t="s">
@@ -8308,9 +8257,8 @@
       <c r="B28" s="7">
         <v>148.0</v>
       </c>
-      <c r="C28" s="8" t="str">
-        <f>HYPERLINK("https://github.uci.edu/rtrimana/smartthings_app/blob/master/official/speaker-control.groovy","speaker-control.groovy")</f>
-        <v>speaker-control.groovy</v>
+      <c r="C28" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="D28" s="9"/>
       <c r="E28" s="15" t="s">
@@ -8464,9 +8412,8 @@
       <c r="B29" s="7">
         <v>149.0</v>
       </c>
-      <c r="C29" s="8" t="str">
-        <f>HYPERLINK("https://github.uci.edu/rtrimana/smartthings_app/blob/master/official/speaker-mood-music.groovy","speaker-mood-music.groovy")</f>
-        <v>speaker-mood-music.groovy</v>
+      <c r="C29" s="8" t="s">
+        <v>30</v>
       </c>
       <c r="D29" s="9"/>
       <c r="E29" s="15" t="s">
@@ -8620,9 +8567,8 @@
       <c r="B30" s="7">
         <v>150.0</v>
       </c>
-      <c r="C30" s="8" t="str">
-        <f>HYPERLINK("https://github.uci.edu/rtrimana/smartthings_app/blob/master/official/speaker-notify-with-sound.groovy","speaker-notify-with-sound.groovy")</f>
-        <v>speaker-notify-with-sound.groovy</v>
+      <c r="C30" s="8" t="s">
+        <v>31</v>
       </c>
       <c r="D30" s="9"/>
       <c r="E30" s="15" t="s">
@@ -8776,9 +8722,8 @@
       <c r="B31" s="7">
         <v>151.0</v>
       </c>
-      <c r="C31" s="8" t="str">
-        <f>HYPERLINK("https://github.uci.edu/rtrimana/smartthings_app/blob/master/official/speaker-weather-forecast.groovy","speaker-weather-forecast.groovy")</f>
-        <v>speaker-weather-forecast.groovy</v>
+      <c r="C31" s="8" t="s">
+        <v>32</v>
       </c>
       <c r="D31" s="9"/>
       <c r="E31" s="15" t="s">
@@ -8932,9 +8877,8 @@
       <c r="B32" s="7">
         <v>155.0</v>
       </c>
-      <c r="C32" s="12" t="str">
-        <f>HYPERLINK("https://github.uci.edu/rtrimana/smartthings_app/blob/master/official/sunrise-sunset.groovy","sunrise-sunset.groovy")</f>
-        <v>sunrise-sunset.groovy</v>
+      <c r="C32" s="12" t="s">
+        <v>33</v>
       </c>
       <c r="D32" s="9" t="s">
         <v>51</v>
@@ -9090,9 +9034,8 @@
       <c r="B33" s="7">
         <v>157.0</v>
       </c>
-      <c r="C33" s="16" t="str">
-        <f>HYPERLINK("https://github.uci.edu/rtrimana/smartthings_app/blob/master/official/switch-activates-home-phrase-or-mode.groovy","switch-activates-home-phrase-or-mode.groovy")</f>
-        <v>switch-activates-home-phrase-or-mode.groovy</v>
+      <c r="C33" s="16" t="s">
+        <v>34</v>
       </c>
       <c r="D33" s="9" t="s">
         <v>51</v>
@@ -9248,9 +9191,8 @@
       <c r="B34" s="7">
         <v>158.0</v>
       </c>
-      <c r="C34" s="16" t="str">
-        <f>HYPERLINK("https://github.uci.edu/rtrimana/smartthings_app/blob/master/official/switch-changes-mode.groovy","switch-changes-mode.groovy")</f>
-        <v>switch-changes-mode.groovy</v>
+      <c r="C34" s="16" t="s">
+        <v>35</v>
       </c>
       <c r="D34" s="9" t="s">
         <v>51</v>
@@ -9406,9 +9348,8 @@
       <c r="B35" s="7">
         <v>159.0</v>
       </c>
-      <c r="C35" s="12" t="str">
-        <f>HYPERLINK("https://github.uci.edu/rtrimana/smartthings_app/blob/master/official/talking-alarm-clock.groovy","talking-alarm-clock.groovy")</f>
-        <v>talking-alarm-clock.groovy</v>
+      <c r="C35" s="12" t="s">
+        <v>36</v>
       </c>
       <c r="D35" s="9" t="s">
         <v>51</v>
@@ -9564,9 +9505,8 @@
       <c r="B36" s="7">
         <v>169.0</v>
       </c>
-      <c r="C36" s="8" t="str">
-        <f>HYPERLINK("https://github.uci.edu/rtrimana/smartthings_app/blob/master/official/thermostat-mode-director.groovy","thermostat-mode-director.groovy")</f>
-        <v>thermostat-mode-director.groovy</v>
+      <c r="C36" s="8" t="s">
+        <v>37</v>
       </c>
       <c r="D36" s="9"/>
       <c r="E36" s="15" t="s">
@@ -9720,9 +9660,8 @@
       <c r="B37" s="7">
         <v>183.0</v>
       </c>
-      <c r="C37" s="8" t="str">
-        <f>HYPERLINK("https://github.uci.edu/rtrimana/smartthings_app/blob/master/official/vacation-lighting-director.groovy","vacation-lighting-director.groovy")</f>
-        <v>vacation-lighting-director.groovy</v>
+      <c r="C37" s="8" t="s">
+        <v>38</v>
       </c>
       <c r="D37" s="9"/>
       <c r="E37" s="15" t="s">
@@ -9876,9 +9815,8 @@
       <c r="B38" s="7">
         <v>196.0</v>
       </c>
-      <c r="C38" s="8" t="str">
-        <f>HYPERLINK("https://github.uci.edu/rtrimana/smartthings_app/blob/master/official/working-from-home.groovy","working-from-home.groovy")</f>
-        <v>working-from-home.groovy</v>
+      <c r="C38" s="8" t="s">
+        <v>39</v>
       </c>
       <c r="D38" s="9"/>
       <c r="E38" s="15" t="s">
@@ -10032,9 +9970,8 @@
       <c r="B39" s="7">
         <v>15.0</v>
       </c>
-      <c r="C39" s="16" t="str">
-        <f>HYPERLINK("https://github.uci.edu/rtrimana/smartthings_app/blob/master/third-party/button-controller-for-hlgs.groovy","button-controller-for-hlgs.groovy")</f>
-        <v>button-controller-for-hlgs.groovy</v>
+      <c r="C39" s="16" t="s">
+        <v>40</v>
       </c>
       <c r="D39" s="9" t="s">
         <v>51</v>
@@ -10190,9 +10127,8 @@
       <c r="B40" s="7">
         <v>17.0</v>
       </c>
-      <c r="C40" s="8" t="str">
-        <f>HYPERLINK("https://github.uci.edu/rtrimana/smartthings_app/blob/master/third-party/circadian-daylight.groovy","circadian-daylight.groovy")</f>
-        <v>circadian-daylight.groovy</v>
+      <c r="C40" s="8" t="s">
+        <v>41</v>
       </c>
       <c r="D40" s="9"/>
       <c r="E40" s="15" t="s">
@@ -10346,9 +10282,8 @@
       <c r="B41" s="7">
         <v>23.0</v>
       </c>
-      <c r="C41" s="16" t="str">
-        <f>HYPERLINK("https://github.uci.edu/rtrimana/smartthings_app/blob/master/third-party/ecobeeChangeMode.groovy","ecobeeChangeMode.groovy")</f>
-        <v>ecobeeChangeMode.groovy</v>
+      <c r="C41" s="16" t="s">
+        <v>42</v>
       </c>
       <c r="D41" s="23" t="s">
         <v>51</v>
@@ -10504,9 +10439,8 @@
       <c r="B42" s="7">
         <v>27.0</v>
       </c>
-      <c r="C42" s="8" t="str">
-        <f>HYPERLINK("https://github.uci.edu/rtrimana/smartthings_app/blob/master/third-party/ecobeeGenerateWeeklyStats.groovy","ecobeeGenerateWeeklyStats.groovy")</f>
-        <v>ecobeeGenerateWeeklyStats.groovy</v>
+      <c r="C42" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="D42" s="9"/>
       <c r="E42" s="15" t="s">
@@ -10660,9 +10594,8 @@
       <c r="B43" s="7">
         <v>29.0</v>
       </c>
-      <c r="C43" s="8" t="str">
-        <f>HYPERLINK("https://github.uci.edu/rtrimana/smartthings_app/blob/master/third-party/ecobeeManageClimate.groovy","ecobeeManageClimate.groovy")</f>
-        <v>ecobeeManageClimate.groovy</v>
+      <c r="C43" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="D43" s="9"/>
       <c r="E43" s="15" t="s">
@@ -10816,9 +10749,8 @@
       <c r="B44" s="7">
         <v>32.0</v>
       </c>
-      <c r="C44" s="8" t="str">
-        <f>HYPERLINK("https://github.uci.edu/rtrimana/smartthings_app/blob/master/third-party/ecobeeResumeProg.groovy","ecobeeResumeProg.groovy")</f>
-        <v>ecobeeResumeProg.groovy</v>
+      <c r="C44" s="8" t="s">
+        <v>45</v>
       </c>
       <c r="D44" s="9"/>
       <c r="E44" s="15" t="s">
@@ -10972,9 +10904,8 @@
       <c r="B45" s="7">
         <v>49.0</v>
       </c>
-      <c r="C45" s="8" t="str">
-        <f>HYPERLINK("https://github.uci.edu/rtrimana/smartthings_app/blob/master/third-party/MonitorAndSetEcobeeHumidity.groovy","MonitorAndSetEcobeeHumidity.groovy")</f>
-        <v>MonitorAndSetEcobeeHumidity.groovy</v>
+      <c r="C45" s="8" t="s">
+        <v>46</v>
       </c>
       <c r="D45" s="9"/>
       <c r="E45" s="15" t="s">
@@ -11128,9 +11059,8 @@
       <c r="B46" s="7">
         <v>57.0</v>
       </c>
-      <c r="C46" s="8" t="str">
-        <f>HYPERLINK("https://github.uci.edu/rtrimana/smartthings_app/blob/master/third-party/SmartPresence.groovy","SmartPresence.groovy")</f>
-        <v>SmartPresence.groovy</v>
+      <c r="C46" s="8" t="s">
+        <v>47</v>
       </c>
       <c r="D46" s="9"/>
       <c r="E46" s="15" t="s">
@@ -11284,9 +11214,8 @@
       <c r="B47" s="24">
         <v>61.0</v>
       </c>
-      <c r="C47" s="25" t="str">
-        <f>HYPERLINK("https://github.uci.edu/rtrimana/smartthings_app/blob/master/third-party/Switches.groovy","Switches.groovy")</f>
-        <v>Switches.groovy</v>
+      <c r="C47" s="25" t="s">
+        <v>48</v>
       </c>
       <c r="D47" s="9" t="s">
         <v>51</v>
@@ -11442,9 +11371,8 @@
       <c r="B48" s="7">
         <v>66.0</v>
       </c>
-      <c r="C48" s="8" t="str">
-        <f>HYPERLINK("https://github.uci.edu/rtrimana/smartthings_app/blob/master/third-party/WorkingFromHome.groovy","WorkingFromHome.groovy")</f>
-        <v>WorkingFromHome.groovy</v>
+      <c r="C48" s="8" t="s">
+        <v>49</v>
       </c>
       <c r="D48" s="9"/>
       <c r="E48" s="15" t="s">
